--- a/SPL to Dynatrace TOC.xlsx
+++ b/SPL to Dynatrace TOC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\DT_TEKSYSTEMS_04_08_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77342B93-E349-435F-A357-2AD82CF9725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A88A20-031A-4D5E-BC83-D07C9E3A0E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -477,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -500,9 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -550,6 +553,15 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,18 +860,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="22"/>
+    <col min="1" max="1" width="8.77734375" style="21"/>
     <col min="2" max="2" width="34.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="22"/>
-    <col min="5" max="5" width="12.44140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="21"/>
+    <col min="5" max="5" width="12.44140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="21" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -879,7 +891,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>81</v>
       </c>
     </row>
@@ -890,16 +902,16 @@
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>45873</v>
       </c>
     </row>
@@ -910,16 +922,16 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>45873</v>
       </c>
     </row>
@@ -930,14 +942,14 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>45873</v>
       </c>
     </row>
@@ -948,14 +960,14 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>45873</v>
       </c>
     </row>
@@ -966,16 +978,16 @@
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -986,14 +998,14 @@
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1004,14 +1016,14 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="24">
+      <c r="D8" s="12"/>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1022,14 +1034,14 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="D9" s="12"/>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1040,14 +1052,14 @@
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1058,14 +1070,14 @@
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1076,14 +1088,14 @@
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="24">
+      <c r="D12" s="12"/>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1094,14 +1106,14 @@
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="D13" s="12"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1112,14 +1124,14 @@
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12">
-        <v>2</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="D14" s="12"/>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1130,14 +1142,14 @@
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="D15" s="12"/>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1148,16 +1160,16 @@
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
-        <v>2</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1168,14 +1180,14 @@
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12">
-        <v>2</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="D17" s="12"/>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1186,14 +1198,14 @@
       <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
         <v>45874</v>
       </c>
     </row>
@@ -1204,14 +1216,14 @@
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>45875</v>
       </c>
     </row>
@@ -1222,14 +1234,14 @@
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>45875</v>
       </c>
     </row>
@@ -1240,14 +1252,14 @@
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>45875</v>
       </c>
     </row>
@@ -1258,14 +1270,14 @@
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12">
+      <c r="D22" s="12"/>
+      <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>45875</v>
       </c>
     </row>
@@ -1276,16 +1288,16 @@
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="11">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>45875</v>
       </c>
     </row>
@@ -1296,14 +1308,14 @@
       <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12">
+      <c r="D24" s="12"/>
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>45875</v>
       </c>
     </row>
@@ -1314,16 +1326,16 @@
       <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>4</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1334,14 +1346,14 @@
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12">
+      <c r="D26" s="12"/>
+      <c r="E26" s="11">
         <v>4</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1352,14 +1364,14 @@
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="11">
         <v>4</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1370,14 +1382,14 @@
       <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="11">
         <v>4</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1388,14 +1400,14 @@
       <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1406,14 +1418,14 @@
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12">
+      <c r="D30" s="12"/>
+      <c r="E30" s="11">
         <v>4</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1424,14 +1436,14 @@
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11">
         <v>4</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1442,14 +1454,14 @@
       <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12">
+      <c r="D32" s="12"/>
+      <c r="E32" s="11">
         <v>4</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1460,14 +1472,14 @@
       <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12">
+      <c r="D33" s="12"/>
+      <c r="E33" s="11">
         <v>4</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1478,14 +1490,14 @@
       <c r="B34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="12">
+      <c r="D34" s="13"/>
+      <c r="E34" s="11">
         <v>4</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>45876</v>
       </c>
     </row>
@@ -1499,13 +1511,13 @@
       <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="6">
         <v>5</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>45877</v>
       </c>
     </row>
@@ -1516,16 +1528,16 @@
       <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>8</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>5</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <v>45877</v>
       </c>
     </row>
@@ -1536,14 +1548,14 @@
       <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12">
+      <c r="D37" s="12"/>
+      <c r="E37" s="11">
         <v>5</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>45877</v>
       </c>
     </row>
@@ -1554,14 +1566,14 @@
       <c r="B38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12">
+      <c r="D38" s="12"/>
+      <c r="E38" s="11">
         <v>5</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="23">
         <v>45877</v>
       </c>
     </row>
@@ -1572,14 +1584,14 @@
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12">
+      <c r="D39" s="12"/>
+      <c r="E39" s="11">
         <v>6</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="23">
         <v>45880</v>
       </c>
     </row>
@@ -1590,14 +1602,14 @@
       <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12">
+      <c r="D40" s="12"/>
+      <c r="E40" s="11">
         <v>6</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <v>45880</v>
       </c>
     </row>
@@ -1608,14 +1620,14 @@
       <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12">
+      <c r="D41" s="12"/>
+      <c r="E41" s="11">
         <v>6</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="23">
         <v>45880</v>
       </c>
     </row>
@@ -1626,14 +1638,14 @@
       <c r="B42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12">
+      <c r="D42" s="12"/>
+      <c r="E42" s="11">
         <v>6</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <v>45880</v>
       </c>
     </row>
@@ -1644,14 +1656,14 @@
       <c r="B43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="12">
+      <c r="D43" s="13"/>
+      <c r="E43" s="11">
         <v>6</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="23">
         <v>45880</v>
       </c>
     </row>
@@ -1662,16 +1674,16 @@
       <c r="B44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <v>2</v>
       </c>
       <c r="E44" s="6">
         <v>7</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="23">
         <v>45881</v>
       </c>
     </row>
@@ -1682,16 +1694,16 @@
       <c r="B45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>4</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>7</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="23">
         <v>45881</v>
       </c>
     </row>
@@ -1702,14 +1714,14 @@
       <c r="B46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12">
+      <c r="D46" s="12"/>
+      <c r="E46" s="11">
         <v>7</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>45881</v>
       </c>
     </row>
@@ -1720,14 +1732,14 @@
       <c r="B47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12">
+      <c r="D47" s="12"/>
+      <c r="E47" s="11">
         <v>7</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="23">
         <v>45881</v>
       </c>
     </row>
@@ -1738,14 +1750,14 @@
       <c r="B48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12">
+      <c r="D48" s="12"/>
+      <c r="E48" s="11">
         <v>8</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1756,14 +1768,14 @@
       <c r="B49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12">
+      <c r="D49" s="12"/>
+      <c r="E49" s="11">
         <v>8</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1774,16 +1786,16 @@
       <c r="B50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="11">
-        <v>2</v>
-      </c>
-      <c r="E50" s="12">
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11">
         <v>8</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1794,14 +1806,14 @@
       <c r="B51" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12">
+      <c r="D51" s="12"/>
+      <c r="E51" s="11">
         <v>8</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1812,14 +1824,14 @@
       <c r="B52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12">
+      <c r="D52" s="12"/>
+      <c r="E52" s="11">
         <v>8</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1830,16 +1842,16 @@
       <c r="B53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="11">
-        <v>2</v>
-      </c>
-      <c r="E53" s="12">
+      <c r="D53" s="10">
+        <v>2</v>
+      </c>
+      <c r="E53" s="11">
         <v>8</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1850,14 +1862,14 @@
       <c r="B54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12">
+      <c r="D54" s="12"/>
+      <c r="E54" s="11">
         <v>8</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1868,14 +1880,14 @@
       <c r="B55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12">
+      <c r="D55" s="12"/>
+      <c r="E55" s="11">
         <v>8</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1886,14 +1898,14 @@
       <c r="B56" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="12">
+      <c r="D56" s="12"/>
+      <c r="E56" s="11">
         <v>8</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1904,14 +1916,14 @@
       <c r="B57" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12">
+      <c r="D57" s="12"/>
+      <c r="E57" s="11">
         <v>8</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <v>45882</v>
       </c>
     </row>
@@ -1922,16 +1934,16 @@
       <c r="B58" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="11">
-        <v>2</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="D58" s="10">
+        <v>2</v>
+      </c>
+      <c r="E58" s="11">
         <v>9</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -1942,14 +1954,14 @@
       <c r="B59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12">
+      <c r="D59" s="12"/>
+      <c r="E59" s="11">
         <v>9</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -1960,14 +1972,14 @@
       <c r="B60" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12">
+      <c r="D60" s="12"/>
+      <c r="E60" s="11">
         <v>9</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -1978,14 +1990,14 @@
       <c r="B61" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12">
+      <c r="D61" s="12"/>
+      <c r="E61" s="11">
         <v>9</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -1996,14 +2008,14 @@
       <c r="B62" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12">
+      <c r="D62" s="12"/>
+      <c r="E62" s="11">
         <v>9</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -2014,14 +2026,14 @@
       <c r="B63" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12">
+      <c r="D63" s="12"/>
+      <c r="E63" s="11">
         <v>9</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -2029,19 +2041,19 @@
       <c r="A64" s="6">
         <v>13</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="14">
-        <v>2</v>
-      </c>
-      <c r="E64" s="12">
+      <c r="D64" s="13">
+        <v>2</v>
+      </c>
+      <c r="E64" s="11">
         <v>9</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F64" s="23">
         <v>45883</v>
       </c>
     </row>
@@ -2049,24 +2061,24 @@
       <c r="A65" s="6">
         <v>14</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="20">
         <v>1</v>
       </c>
       <c r="E65" s="6">
         <v>9</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="23">
         <v>45883</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="22">
+      <c r="D66" s="21">
         <f>SUM(D2:D65)</f>
         <v>40</v>
       </c>
